--- a/biology/Botanique/Humiriaceae/Humiriaceae.xlsx
+++ b/biology/Botanique/Humiriaceae/Humiriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Humiriaceae (les Humiriacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 50 espèces réparties en 3 à 8 genres. 
 Ce sont des arbres ou des arbustes, à feuilles persistantes alternes, certains aromatiques, des régions tropicales, originaires d'Amérique sauf une espèce rencontrée en Afrique de l'Ouest.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Humiria provenant du nom vernaculaire « umiri » utilisé pour nommer la plante en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Humiria provenant du nom vernaculaire « umiri » utilisé pour nommer la plante en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique la situe dans l'ordre des Malpighiales.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (23 mai 2010)[2] et GRIN            (23 mai 2010)[3]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (23 mai 2010) et GRIN            (23 mai 2010):
 genre Duckesia (es) Cuatrec.
 genre Endopleura (pt) Cuatrec.
 genre Humiria Aubl.
@@ -585,11 +603,11 @@
 genre Sacoglottis (en) Mart.
 genre Schistostemon (es) (Urb.) Cuatrec.
 genre Vantanea Aubl.
-Selon NCBI  (23 mai 2010)[4] :
+Selon NCBI  (23 mai 2010) :
 genre Humiria
 genre Sacoglottis
 genre Vantanea
-Selon DELTA Angio           (23 mai 2010)[5] :
+Selon DELTA Angio           (23 mai 2010) :
 genre Duckesia
 genre Endopleura
 genre Houmiria
@@ -626,9 +644,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mai 2010) :
 genre Humiria
 Humiria balsamifera
 Humiria wurdackii
